--- a/ExecutionTestData/3/TestData.xlsx
+++ b/ExecutionTestData/3/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ExecutionTestData\Batch3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="148">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -483,27 +483,6 @@
   </si>
   <si>
     <t>HUAWEI_Honor20i_Android_10.0.0_3641a</t>
-  </si>
-  <si>
-    <t>XIAOMI_RedmiNote8Pro_Android_10.0.0_d3e8a</t>
-  </si>
-  <si>
-    <t>HUAWEI_P30Lite_Android_10.0.0_693f0</t>
-  </si>
-  <si>
-    <t>HUAWEI_nova3i_Android_8.1.0_c7f62</t>
-  </si>
-  <si>
-    <t>XIAOMI_Redmi6Pro_Android_8.1.0_3492f</t>
-  </si>
-  <si>
-    <t>XIAOMI_RedmiNote5Pro_Android_9.0.0_d098d</t>
-  </si>
-  <si>
-    <t>XIAOMI_RedmiY2_Android_9.0.0_be7ae</t>
-  </si>
-  <si>
-    <t>HUAWEI_P20Pro_Android_10.0.0_dec7f</t>
   </si>
 </sst>
 </file>
@@ -635,7 +614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -688,70 +667,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1253,75 +1183,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Q2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="8" max="17" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="9" customFormat="1">
+    <row r="1" spans="1:3" s="9" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -1331,50 +1216,8 @@
       <c r="C2" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1384,50 +1227,8 @@
       <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1437,50 +1238,8 @@
       <c r="C4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1490,50 +1249,8 @@
       <c r="C5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1543,50 +1260,8 @@
       <c r="C6" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1596,50 +1271,8 @@
       <c r="C7" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1649,50 +1282,8 @@
       <c r="C8" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1702,50 +1293,8 @@
       <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="18">
-        <v>3</v>
-      </c>
-      <c r="E9" s="18">
-        <v>4</v>
-      </c>
-      <c r="F9" s="18">
-        <v>5</v>
-      </c>
-      <c r="G9" s="18">
-        <v>6</v>
-      </c>
-      <c r="H9" s="18">
-        <v>7</v>
-      </c>
-      <c r="I9" s="18">
-        <v>8</v>
-      </c>
-      <c r="J9" s="18">
-        <v>9</v>
-      </c>
-      <c r="K9" s="18">
-        <v>10</v>
-      </c>
-      <c r="L9" s="18">
-        <v>11</v>
-      </c>
-      <c r="M9" s="18">
-        <v>12</v>
-      </c>
-      <c r="N9" s="18">
-        <v>13</v>
-      </c>
-      <c r="O9" s="18">
-        <v>14</v>
-      </c>
-      <c r="P9" s="18">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1755,57 +1304,15 @@
       <c r="C10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:Q2">
-    <cfRule type="beginsWith" dxfId="3" priority="1" operator="beginsWith" text="Working">
+  <conditionalFormatting sqref="B2:C2">
+    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:Q2">
-    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="Not Working">
+  <conditionalFormatting sqref="B2:C2">
+    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ExecutionTestData/3/TestData.xlsx
+++ b/ExecutionTestData/3/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finalList9Feb\batches\Batch3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="158">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -482,14 +482,44 @@
     <t>10.0.0</t>
   </si>
   <si>
-    <t>HUAWEI_Honor20i_Android_10.0.0_3641a</t>
+    <t>12.0.0</t>
+  </si>
+  <si>
+    <t>ONEPLUS_9_Android_12.0.0_a5ac6</t>
+  </si>
+  <si>
+    <t>ONEPLUS_5_Android_9.0.0_d9e3e</t>
+  </si>
+  <si>
+    <t>GOOGLE_Pixel2_Android_11.0.0_c2579</t>
+  </si>
+  <si>
+    <t>ONEPLUS_7_Android_10.0.0_1c4f5</t>
+  </si>
+  <si>
+    <t>GOOGLE_Pixel3_Android_12.0.0_a6091</t>
+  </si>
+  <si>
+    <t>ONEPLUS_8T_Android_11.0.0_f37ff</t>
+  </si>
+  <si>
+    <t>GOOGLE_PixelXL_Android_10.0.0_53dda</t>
+  </si>
+  <si>
+    <t>ONEPLUS_7_Android_9.0.0_f3b35</t>
+  </si>
+  <si>
+    <t>GOOGLE_Pixel6_Android_12.0.0_1c082</t>
+  </si>
+  <si>
+    <t>ONEPLUS_6T_Android_11.0.0_609cf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,6 +564,16 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -614,7 +654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -666,16 +706,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1183,41 +1225,146 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="8" max="20" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1">
+    <row r="1" spans="1:20" s="9" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>75</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="G2" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="22" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="I2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1227,8 +1374,59 @@
       <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1238,8 +1436,59 @@
       <c r="C4" s="12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1249,8 +1498,59 @@
       <c r="C5" s="19" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1260,8 +1560,59 @@
       <c r="C6" s="15" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1271,8 +1622,59 @@
       <c r="C7" s="16" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1282,8 +1684,59 @@
       <c r="C8" s="16" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1293,8 +1746,59 @@
       <c r="C9" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="18">
+        <v>3</v>
+      </c>
+      <c r="E9" s="18">
+        <v>4</v>
+      </c>
+      <c r="F9" s="18">
+        <v>5</v>
+      </c>
+      <c r="G9" s="18">
+        <v>6</v>
+      </c>
+      <c r="H9" s="18">
+        <v>7</v>
+      </c>
+      <c r="I9" s="18">
+        <v>8</v>
+      </c>
+      <c r="J9" s="18">
+        <v>9</v>
+      </c>
+      <c r="K9" s="18">
+        <v>10</v>
+      </c>
+      <c r="L9" s="18">
+        <v>11</v>
+      </c>
+      <c r="M9" s="18">
+        <v>12</v>
+      </c>
+      <c r="N9" s="18">
+        <v>13</v>
+      </c>
+      <c r="O9" s="18">
+        <v>14</v>
+      </c>
+      <c r="P9" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>16</v>
+      </c>
+      <c r="R9" s="18">
+        <v>17</v>
+      </c>
+      <c r="S9" s="18">
+        <v>18</v>
+      </c>
+      <c r="T9" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1304,14 +1808,65 @@
       <c r="C10" s="16" t="s">
         <v>32</v>
       </c>
+      <c r="D10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:C2">
+  <conditionalFormatting sqref="B2:T2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2">
+  <conditionalFormatting sqref="B2:T2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>

--- a/ExecutionTestData/3/TestData.xlsx
+++ b/ExecutionTestData/3/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finalList9Feb\batches\Batch3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="149">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -458,9 +458,6 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
-    <t>11.0.0</t>
-  </si>
-  <si>
     <t>EndPoint</t>
   </si>
   <si>
@@ -479,47 +476,23 @@
     <t>121212</t>
   </si>
   <si>
-    <t>10.0.0</t>
-  </si>
-  <si>
-    <t>12.0.0</t>
-  </si>
-  <si>
-    <t>ONEPLUS_9_Android_12.0.0_a5ac6</t>
-  </si>
-  <si>
-    <t>ONEPLUS_5_Android_9.0.0_d9e3e</t>
-  </si>
-  <si>
-    <t>GOOGLE_Pixel2_Android_11.0.0_c2579</t>
-  </si>
-  <si>
-    <t>ONEPLUS_7_Android_10.0.0_1c4f5</t>
-  </si>
-  <si>
-    <t>GOOGLE_Pixel3_Android_12.0.0_a6091</t>
-  </si>
-  <si>
-    <t>ONEPLUS_8T_Android_11.0.0_f37ff</t>
-  </si>
-  <si>
-    <t>GOOGLE_PixelXL_Android_10.0.0_53dda</t>
-  </si>
-  <si>
-    <t>ONEPLUS_7_Android_9.0.0_f3b35</t>
-  </si>
-  <si>
-    <t>GOOGLE_Pixel6_Android_12.0.0_1c082</t>
-  </si>
-  <si>
-    <t>ONEPLUS_6T_Android_11.0.0_609cf</t>
+    <t>APPLE_iPhoneX_iOS_14.0.0_1b718</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneSE2020_iOS_14.0.1_967aa</t>
+  </si>
+  <si>
+    <t>14.0.0</t>
+  </si>
+  <si>
+    <t>14.0.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,26 +533,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF202124"/>
-      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="3">
@@ -654,7 +607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -705,25 +658,35 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC4125"/>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1042,11 +1005,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.140625" style="3" bestFit="1" customWidth="1"/>
@@ -1067,7 +1030,7 @@
     <col min="17" max="16384" width="14.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1078,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1117,7 +1080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1128,7 +1091,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1167,7 +1130,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="6" customFormat="1">
+    <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1178,7 +1141,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1225,518 +1188,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="8" max="20" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="9" customFormat="1">
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="T1" s="20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="T3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="T5" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="R7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="T8" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1746,59 +1298,8 @@
       <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="18">
-        <v>3</v>
-      </c>
-      <c r="E9" s="18">
-        <v>4</v>
-      </c>
-      <c r="F9" s="18">
-        <v>5</v>
-      </c>
-      <c r="G9" s="18">
-        <v>6</v>
-      </c>
-      <c r="H9" s="18">
-        <v>7</v>
-      </c>
-      <c r="I9" s="18">
-        <v>8</v>
-      </c>
-      <c r="J9" s="18">
-        <v>9</v>
-      </c>
-      <c r="K9" s="18">
-        <v>10</v>
-      </c>
-      <c r="L9" s="18">
-        <v>11</v>
-      </c>
-      <c r="M9" s="18">
-        <v>12</v>
-      </c>
-      <c r="N9" s="18">
-        <v>13</v>
-      </c>
-      <c r="O9" s="18">
-        <v>14</v>
-      </c>
-      <c r="P9" s="18">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>16</v>
-      </c>
-      <c r="R9" s="18">
-        <v>17</v>
-      </c>
-      <c r="S9" s="18">
-        <v>18</v>
-      </c>
-      <c r="T9" s="18">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1808,66 +1309,15 @@
       <c r="C10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:T2">
-    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
+  <conditionalFormatting sqref="B2:C2">
+    <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:T2">
-    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
+  <conditionalFormatting sqref="B2:C2">
+    <cfRule type="beginsWith" dxfId="2" priority="4" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1881,10 +1331,10 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:U3"/>
+      <selection activeCell="B2" sqref="B2:T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1908,7 +1358,7 @@
     <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -1970,8 +1420,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
@@ -2035,8 +1485,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="23"/>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -2098,37 +1548,37 @@
         <v>121212</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="75">
+    <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="75">
+    <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="120">
+    <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="60">
+    <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="45">
+    <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1</v>
       </c>
@@ -2151,8 +1601,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
@@ -2177,8 +1627,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="24"/>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
       <c r="B13">
         <v>121212</v>
       </c>
@@ -2201,32 +1651,32 @@
         <v>121212</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="75">
+    <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="75">
+    <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="120">
+    <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="60">
+    <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="45">
+    <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>60</v>
       </c>
@@ -2249,332 +1699,332 @@
       <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" thickBot="1">
+    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" thickBot="1">
+    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" thickBot="1">
+    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1">
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" thickBot="1">
+    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" thickBot="1">
+    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" thickBot="1">
+    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" thickBot="1">
+    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" thickBot="1">
+    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1">
+    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75" thickBot="1">
+    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.75" thickBot="1">
+    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" thickBot="1">
+    <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" thickBot="1">
+    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickBot="1">
+    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" thickBot="1">
+    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" thickBot="1">
+    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" thickBot="1">
+    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" thickBot="1">
+    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" thickBot="1">
+    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.75" thickBot="1">
+    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1">
+    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.75" thickBot="1">
+    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.75" thickBot="1">
+    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.75" thickBot="1">
+    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.75" thickBot="1">
+    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15.75" thickBot="1">
+    <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.75" thickBot="1">
+    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15.75" thickBot="1">
+    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15.75" thickBot="1">
+    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.75" thickBot="1">
+    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.75" thickBot="1">
+    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.75" thickBot="1">
+    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.75" thickBot="1">
+    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15.75" thickBot="1">
+    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.75" thickBot="1">
+    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15.75" thickBot="1">
+    <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.75" thickBot="1">
+    <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15.75" thickBot="1">
+    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15.75" thickBot="1">
+    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15.75" thickBot="1">
+    <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1">
+    <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15.75" thickBot="1">
+    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15.75" thickBot="1">
+    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15.75" thickBot="1">
+    <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15.75" thickBot="1">
+    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15.75" thickBot="1">
+    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15.75" thickBot="1">
+    <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15.75" thickBot="1">
+    <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15.75" thickBot="1">
+    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15.75" thickBot="1">
+    <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15.75" thickBot="1">
+    <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15.75" thickBot="1">
+    <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15.75" thickBot="1">
+    <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15.75" thickBot="1">
+    <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15.75" thickBot="1">
+    <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15.75" thickBot="1">
+    <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15.75" thickBot="1">
+    <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15.75" thickBot="1">
+    <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15.75" thickBot="1">
+    <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15.75" thickBot="1">
+    <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15.75" thickBot="1">
+    <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15.75" thickBot="1">
+    <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
         <v>138</v>
       </c>

--- a/ExecutionTestData/3/TestData.xlsx
+++ b/ExecutionTestData/3/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\skippedBatch3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="159">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -458,6 +458,9 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
+    <t>11.0.0</t>
+  </si>
+  <si>
     <t>EndPoint</t>
   </si>
   <si>
@@ -476,16 +479,43 @@
     <t>121212</t>
   </si>
   <si>
-    <t>APPLE_iPhoneX_iOS_14.0.0_1b718</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneSE2020_iOS_14.0.1_967aa</t>
-  </si>
-  <si>
-    <t>14.0.0</t>
-  </si>
-  <si>
-    <t>14.0.1</t>
+    <t>10.0.0</t>
+  </si>
+  <si>
+    <t>MOTOROLA_MotoE7Power_Android_10.0.0_a2201</t>
+  </si>
+  <si>
+    <t>MOTOROLA_MotoG5_Android_8.1.0_c3d6c</t>
+  </si>
+  <si>
+    <t>NOKIA_2.3_Android_10.0.0_8c175</t>
+  </si>
+  <si>
+    <t>OPPO_A3s_Android_8.1.0_37894</t>
+  </si>
+  <si>
+    <t>OPPO_Realme2_Android_9.0.0_911fd</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyJ4_Android_10.0.0_889f0</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyJ7Prime_Android_8.1.0_78777</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyM02_Android_11.0.0_51323</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyOnMax_Android_8.1.0_85564</t>
+  </si>
+  <si>
+    <t>XIAOMI_Redmi5_Android_8.1.0_8e5b7</t>
+  </si>
+  <si>
+    <t>XIAOMI_Redmi6_Android_9.0.0_ed157</t>
+  </si>
+  <si>
+    <t>XIAOMI_RedmiNote9_Android_10.0.0_a7454</t>
   </si>
 </sst>
 </file>
@@ -549,7 +579,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -584,21 +614,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,23 +657,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -670,23 +687,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1005,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1091,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1141,7 +1142,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1188,136 +1189,440 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" style="17"/>
+    <col min="2" max="2" width="37.85546875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="42" style="17" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="17" customWidth="1"/>
+    <col min="6" max="16384" width="17.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="14">
         <v>1</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="D9" s="14">
+        <v>3</v>
+      </c>
+      <c r="E9" s="14">
+        <v>4</v>
+      </c>
+      <c r="F9" s="14">
+        <v>5</v>
+      </c>
+      <c r="G9" s="14">
+        <v>6</v>
+      </c>
+      <c r="H9" s="14">
+        <v>7</v>
+      </c>
+      <c r="I9" s="14">
+        <v>8</v>
+      </c>
+      <c r="J9" s="14">
+        <v>9</v>
+      </c>
+      <c r="K9" s="14">
+        <v>10</v>
+      </c>
+      <c r="L9" s="14">
+        <v>11</v>
+      </c>
+      <c r="M9" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="19" t="s">
         <v>32</v>
       </c>
+      <c r="D10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:C2">
-    <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="Working">
+  <conditionalFormatting sqref="B2:M2">
+    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2">
-    <cfRule type="beginsWith" dxfId="2" priority="4" operator="beginsWith" text="Not Working">
+  <conditionalFormatting sqref="B2:M2">
+    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1331,7 +1636,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:T2"/>
+      <selection activeCell="B2" sqref="B2:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,327 +2010,327 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="12" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="12" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="12" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="12" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="12" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="12" t="s">
         <v>138</v>
       </c>
     </row>

--- a/ExecutionTestData/3/TestData.xlsx
+++ b/ExecutionTestData/3/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\skippedBatch3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="156">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -491,15 +491,9 @@
     <t>NOKIA_2.3_Android_10.0.0_8c175</t>
   </si>
   <si>
-    <t>OPPO_A3s_Android_8.1.0_37894</t>
-  </si>
-  <si>
     <t>OPPO_Realme2_Android_9.0.0_911fd</t>
   </si>
   <si>
-    <t>SAMSUNG_GalaxyJ4_Android_10.0.0_889f0</t>
-  </si>
-  <si>
     <t>SAMSUNG_GalaxyJ7Prime_Android_8.1.0_78777</t>
   </si>
   <si>
@@ -510,9 +504,6 @@
   </si>
   <si>
     <t>XIAOMI_Redmi5_Android_8.1.0_8e5b7</t>
-  </si>
-  <si>
-    <t>XIAOMI_Redmi6_Android_9.0.0_ed157</t>
   </si>
   <si>
     <t>XIAOMI_RedmiNote9_Android_10.0.0_a7454</t>
@@ -1189,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,11 +1192,13 @@
     <col min="2" max="2" width="37.85546875" style="17" customWidth="1"/>
     <col min="3" max="3" width="42" style="17" customWidth="1"/>
     <col min="4" max="4" width="34.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="17" customWidth="1"/>
-    <col min="6" max="16384" width="17.140625" style="17"/>
+    <col min="5" max="5" width="34.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="17.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
@@ -1236,17 +1229,8 @@
       <c r="J1" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="K1" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -1260,34 +1244,25 @@
         <v>146</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>144</v>
-      </c>
       <c r="G2" s="16" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>143</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="M2" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1318,17 +1293,8 @@
       <c r="J3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1342,34 +1308,25 @@
         <v>36</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1400,17 +1357,8 @@
       <c r="J5" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="K5" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1441,17 +1389,8 @@
       <c r="J6" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1482,17 +1421,8 @@
       <c r="J7" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="K7" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1523,17 +1453,8 @@
       <c r="J8" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="K8" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1564,17 +1485,8 @@
       <c r="J9" s="14">
         <v>9</v>
       </c>
-      <c r="K9" s="14">
-        <v>10</v>
-      </c>
-      <c r="L9" s="14">
-        <v>11</v>
-      </c>
-      <c r="M9" s="14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>31</v>
       </c>
@@ -1605,23 +1517,14 @@
       <c r="J10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:M2">
+  <conditionalFormatting sqref="B2:J2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:M2">
+  <conditionalFormatting sqref="B2:J2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>

--- a/ExecutionTestData/3/TestData.xlsx
+++ b/ExecutionTestData/3/TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DBS bank\Milestone2_ExecutionTestRun1\Execution Results\ExecutionTestData\New folder\2_skippedBatch3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE08CF3-C616-4D93-87A7-F9395B462FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="155">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -488,9 +489,6 @@
     <t>MOTOROLA_MotoG5_Android_8.1.0_c3d6c</t>
   </si>
   <si>
-    <t>NOKIA_2.3_Android_10.0.0_8c175</t>
-  </si>
-  <si>
     <t>OPPO_Realme2_Android_9.0.0_911fd</t>
   </si>
   <si>
@@ -512,7 +510,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -613,7 +611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -664,9 +662,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -784,6 +779,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -819,6 +831,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -994,7 +1023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
@@ -1179,11 +1208,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,14 +1220,13 @@
     <col min="1" max="1" width="17.140625" style="17"/>
     <col min="2" max="2" width="37.85546875" style="17" customWidth="1"/>
     <col min="3" max="3" width="42" style="17" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="17.140625" style="17"/>
+    <col min="4" max="4" width="34.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="17.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
@@ -1208,7 +1236,7 @@
       <c r="C1" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="16" t="s">
         <v>149</v>
       </c>
       <c r="E1" s="16" t="s">
@@ -1226,11 +1254,8 @@
       <c r="I1" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -1240,29 +1265,26 @@
       <c r="C2" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>146</v>
+      <c r="D2" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>139</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>143</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="J2" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1290,11 +1312,8 @@
       <c r="I3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1305,28 +1324,25 @@
         <v>35</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1354,11 +1370,8 @@
       <c r="I5" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="J5" s="18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1386,11 +1399,8 @@
       <c r="I6" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1418,11 +1428,8 @@
       <c r="I7" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="J7" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1450,11 +1457,8 @@
       <c r="I8" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="J8" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1465,28 +1469,25 @@
         <v>2</v>
       </c>
       <c r="D9" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I9" s="14">
-        <v>8</v>
-      </c>
-      <c r="J9" s="14">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>31</v>
       </c>
@@ -1514,17 +1515,14 @@
       <c r="I10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="19" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:J2">
+  <conditionalFormatting sqref="B2:I2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:J2">
+  <conditionalFormatting sqref="B2:I2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
@@ -1535,7 +1533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -1629,7 +1627,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
@@ -1694,7 +1692,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1810,7 +1808,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
@@ -1836,7 +1834,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="21"/>
       <c r="B13">
         <v>121212</v>
       </c>
@@ -1900,7 +1898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A65"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ExecutionTestData/3/TestData.xlsx
+++ b/ExecutionTestData/3/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3_skipBackup\3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new added device\oppo aand realme\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="147">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -121,12 +121,6 @@
   </si>
   <si>
     <t>DBS</t>
-  </si>
-  <si>
-    <t>sakshi.juneja@crestechsoftware.com</t>
-  </si>
-  <si>
-    <t>t68k6kw68ywjv2y9zwfr9r3t</t>
   </si>
   <si>
     <t>S2021219EUID</t>
@@ -458,6 +452,9 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
+    <t>11.0.0</t>
+  </si>
+  <si>
     <t>EndPoint</t>
   </si>
   <si>
@@ -479,32 +476,17 @@
     <t>10.0.0</t>
   </si>
   <si>
-    <t>MOTOROLA_MotoE7Power_Android_10.0.0_a2201</t>
-  </si>
-  <si>
-    <t>MOTOROLA_MotoG5_Android_8.1.0_c3d6c</t>
-  </si>
-  <si>
     <t>OPPO_Realme2_Android_9.0.0_911fd</t>
   </si>
   <si>
-    <t>SAMSUNG_GalaxyJ7Prime_Android_8.1.0_78777</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyOnMax_Android_8.1.0_85564</t>
-  </si>
-  <si>
-    <t>XIAOMI_Redmi5_Android_8.1.0_8e5b7</t>
-  </si>
-  <si>
-    <t>XIAOMI_RedmiNote9_Android_10.0.0_a7454</t>
+    <t>REALME_9i_Android_11.0.0_2410</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +526,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -649,9 +637,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
@@ -660,6 +645,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -985,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1071,7 +1059,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1098,13 +1086,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
@@ -1121,7 +1109,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1148,13 +1136,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>21</v>
@@ -1168,75 +1156,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="17"/>
-    <col min="2" max="2" width="37.85546875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="42" style="17" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="17.140625" style="17"/>
+    <col min="1" max="1" width="17.140625" style="16"/>
+    <col min="2" max="2" width="34.140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="17.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E2" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1255,152 +1229,116 @@
       <c r="F3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="14">
         <v>4</v>
@@ -1409,48 +1347,36 @@
         <v>5</v>
       </c>
       <c r="F9" s="14">
-        <v>7</v>
-      </c>
-      <c r="G9" s="14">
-        <v>8</v>
-      </c>
-      <c r="H9" s="14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:H2">
+  <conditionalFormatting sqref="B2:F2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H2">
+  <conditionalFormatting sqref="B2:F2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
@@ -1555,72 +1481,72 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>55</v>
+      <c r="A2" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>50</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>51</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>52</v>
       </c>
-      <c r="T2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="19"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1684,32 +1610,32 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1736,33 +1662,33 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
         <v>62</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>67</v>
       </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="20"/>
       <c r="B13">
         <v>121212</v>
       </c>
@@ -1787,32 +1713,32 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1840,327 +1766,327 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/ExecutionTestData/3/TestData.xlsx
+++ b/ExecutionTestData/3/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new added device\oppo aand realme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newBatchskip-testdata\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Test Data" sheetId="5" r:id="rId3"/>
     <sheet name="DeviceMasterSheet" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="155">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -452,9 +452,6 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
-    <t>11.0.0</t>
-  </si>
-  <si>
     <t>EndPoint</t>
   </si>
   <si>
@@ -473,20 +470,47 @@
     <t>121212</t>
   </si>
   <si>
-    <t>10.0.0</t>
-  </si>
-  <si>
-    <t>OPPO_Realme2_Android_9.0.0_911fd</t>
-  </si>
-  <si>
-    <t>REALME_9i_Android_11.0.0_2410</t>
+    <t>APPLE_iPhoneXSMax_iOS_15.0.0_9049f</t>
+  </si>
+  <si>
+    <t>14.7.1</t>
+  </si>
+  <si>
+    <t>15.0.0</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone7_iOS_13.1.3_316f0</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone7_iOS_14.1.0_19d9f</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone7plus_iOS_11.2.1_94b74</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone7plus_iOS_13.5.1_b1cc7</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone8_iOS_14.7.1_5ef5e</t>
+  </si>
+  <si>
+    <t>13.1.3</t>
+  </si>
+  <si>
+    <t>14.1.0</t>
+  </si>
+  <si>
+    <t>11.2.1</t>
+  </si>
+  <si>
+    <t>13.5.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,12 +552,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -549,7 +567,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -587,12 +605,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -627,28 +690,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -973,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1059,7 +1125,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1109,7 +1175,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1156,227 +1222,257 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="16"/>
-    <col min="2" max="2" width="34.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="17.140625" style="16"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="E4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="F4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="18">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="C9" s="14">
+      <c r="D9" s="18">
         <v>3</v>
       </c>
-      <c r="D9" s="14">
+      <c r="E9" s="18">
         <v>4</v>
       </c>
-      <c r="E9" s="14">
+      <c r="F9" s="18">
         <v>5</v>
       </c>
-      <c r="F9" s="14">
+      <c r="G9" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="16" t="s">
         <v>32</v>
       </c>
+      <c r="G10" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:F2">
+  <conditionalFormatting sqref="B2:G2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:F2">
+  <conditionalFormatting sqref="B2:G2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
@@ -1481,7 +1577,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
@@ -1546,7 +1642,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1662,7 +1758,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B12" t="s">
@@ -1688,7 +1784,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13">
         <v>121212</v>
       </c>
@@ -1765,327 +1861,327 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="13" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="13" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="13" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="13" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="13" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="13" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="13" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="13" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="13" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="13" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="13" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="13" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="13" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="13" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="13" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="13" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="13" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="13" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="13" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="13" t="s">
         <v>136</v>
       </c>
     </row>

--- a/ExecutionTestData/3/TestData.xlsx
+++ b/ExecutionTestData/3/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newBatchskip-testdata\3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newBatchskip-testdata\new android batch added\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Test Data" sheetId="5" r:id="rId3"/>
     <sheet name="DeviceMasterSheet" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="154">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -452,6 +452,9 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
+    <t>11.0.0</t>
+  </si>
+  <si>
     <t>EndPoint</t>
   </si>
   <si>
@@ -470,40 +473,34 @@
     <t>121212</t>
   </si>
   <si>
-    <t>APPLE_iPhoneXSMax_iOS_15.0.0_9049f</t>
-  </si>
-  <si>
-    <t>14.7.1</t>
-  </si>
-  <si>
-    <t>15.0.0</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone7_iOS_13.1.3_316f0</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone7_iOS_14.1.0_19d9f</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone7plus_iOS_11.2.1_94b74</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone7plus_iOS_13.5.1_b1cc7</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone8_iOS_14.7.1_5ef5e</t>
-  </si>
-  <si>
-    <t>13.1.3</t>
-  </si>
-  <si>
-    <t>14.1.0</t>
-  </si>
-  <si>
-    <t>11.2.1</t>
-  </si>
-  <si>
-    <t>13.5.1</t>
+    <t>10.0.0</t>
+  </si>
+  <si>
+    <t>12.0.0</t>
+  </si>
+  <si>
+    <t>MOTOROLA_MotoE7Power_Android_10.0.0_a2201</t>
+  </si>
+  <si>
+    <t>ONEPLUS_9_Android_12.0.0_a5ac6</t>
+  </si>
+  <si>
+    <t>REALME_9i_Android_11.0.0_2410</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyA72018_Android_10.0.0_ef0ba</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyJ7Prime_Android_8.1.0_78777</t>
+  </si>
+  <si>
+    <t>XIAOMI_Redmi10Prime_Android_11.0.0_6ef79</t>
+  </si>
+  <si>
+    <t>XIAOMI_Redmi5_Android_8.1.0_8e5b7</t>
+  </si>
+  <si>
+    <t>XIAOMI_RedmiNote8Pro_Android_10.0.0_d3e8a</t>
   </si>
 </sst>
 </file>
@@ -567,7 +564,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -605,57 +602,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -706,15 +658,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1039,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1125,7 +1077,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1175,7 +1127,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1222,205 +1174,325 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="5" max="12" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1428,22 +1500,37 @@
         <v>1</v>
       </c>
       <c r="C9" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F9" s="18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G9" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="H9" s="18">
+        <v>10</v>
+      </c>
+      <c r="I9" s="18">
+        <v>12</v>
+      </c>
+      <c r="J9" s="18">
+        <v>13</v>
+      </c>
+      <c r="K9" s="18">
+        <v>14</v>
+      </c>
+      <c r="L9" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1465,14 +1552,29 @@
       <c r="G10" s="16" t="s">
         <v>32</v>
       </c>
+      <c r="H10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:G2">
+  <conditionalFormatting sqref="B2:L2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:G2">
+  <conditionalFormatting sqref="B2:L2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
@@ -1486,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:U3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,7 +1679,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
@@ -1642,7 +1744,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1758,7 +1860,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>60</v>
       </c>
       <c r="B12" t="s">
@@ -1784,7 +1886,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13">
         <v>121212</v>
       </c>

--- a/ExecutionTestData/3/TestData.xlsx
+++ b/ExecutionTestData/3/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rerun-mixbatch\3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lastpririority batch\New folder\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="147">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -473,16 +473,10 @@
     <t>APPLE_iPhone7_iOS_14.1.0_19d9f</t>
   </si>
   <si>
-    <t>APPLE_iPhoneXSMax_iOS_15.0.0_9049f</t>
-  </si>
-  <si>
     <t>13.1.3</t>
   </si>
   <si>
     <t>14.1.0</t>
-  </si>
-  <si>
-    <t>15.0.0</t>
   </si>
   <si>
     <t>https://device.pcloudy.com</t>
@@ -549,7 +543,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -602,27 +596,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -674,7 +653,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1005,7 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1091,7 +1069,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1141,7 +1119,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1188,20 +1166,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
@@ -1211,25 +1188,19 @@
       <c r="C1" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1239,11 +1210,8 @@
       <c r="C3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1253,11 +1221,8 @@
       <c r="C4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1267,11 +1232,8 @@
       <c r="C5" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1281,11 +1243,8 @@
       <c r="C6" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1295,11 +1254,8 @@
       <c r="C7" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1309,11 +1265,8 @@
       <c r="C8" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1323,11 +1276,8 @@
       <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1337,17 +1287,14 @@
       <c r="C10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:D2">
+  <conditionalFormatting sqref="B2:C2">
     <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:D2">
+  <conditionalFormatting sqref="B2:C2">
     <cfRule type="beginsWith" dxfId="0" priority="4" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
@@ -1452,7 +1399,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
@@ -1517,7 +1464,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="21"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1633,7 +1580,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>60</v>
       </c>
       <c r="B12" t="s">
@@ -1659,7 +1606,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
       <c r="B13">
         <v>121212</v>
       </c>

--- a/ExecutionTestData/3/TestData.xlsx
+++ b/ExecutionTestData/3/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lastpririority batch\New folder\5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lastpririority batch\8device\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="145">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -467,13 +467,7 @@
     <t>121212</t>
   </si>
   <si>
-    <t>APPLE_iPhone7_iOS_13.1.3_316f0</t>
-  </si>
-  <si>
     <t>APPLE_iPhone7_iOS_14.1.0_19d9f</t>
-  </si>
-  <si>
-    <t>13.1.3</t>
   </si>
   <si>
     <t>14.1.0</t>
@@ -1069,7 +1063,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1119,7 +1113,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1166,135 +1160,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="18">
-        <v>1</v>
-      </c>
-      <c r="C9" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:C2">
+  <conditionalFormatting sqref="B2">
     <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2">
+  <conditionalFormatting sqref="B2">
     <cfRule type="beginsWith" dxfId="0" priority="4" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>

--- a/ExecutionTestData/3/TestData.xlsx
+++ b/ExecutionTestData/3/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lastpririority batch\8device\3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newBatchskip-testdata\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Test Data" sheetId="5" r:id="rId3"/>
     <sheet name="DeviceMasterSheet" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="148">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -452,6 +452,9 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
+    <t>11.0.0</t>
+  </si>
+  <si>
     <t>EndPoint</t>
   </si>
   <si>
@@ -467,13 +470,19 @@
     <t>121212</t>
   </si>
   <si>
-    <t>APPLE_iPhone7_iOS_14.1.0_19d9f</t>
-  </si>
-  <si>
-    <t>14.1.0</t>
-  </si>
-  <si>
-    <t>https://device.pcloudy.com</t>
+    <t>12.0.0</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS215G_Android_12.0.0_a4b35</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS21Ultra5G_Android_11.0.0_7ed46</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS20Ultra_Android_11.0.0_94a4b</t>
+  </si>
+  <si>
+    <t>https://us.pcloudy.com</t>
   </si>
 </sst>
 </file>
@@ -537,7 +546,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -572,21 +581,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,12 +640,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -977,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1063,7 +1059,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1113,7 +1109,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1160,106 +1156,168 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="18">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>32</v>
       </c>
+      <c r="C10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="Working">
+  <conditionalFormatting sqref="B2:D2">
+    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="beginsWith" dxfId="0" priority="4" operator="beginsWith" text="Not Working">
-      <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
+  <conditionalFormatting sqref="B2:D2">
+    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not working">
+      <formula>LEFT((B2),LEN("Not working"))=("Not working")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1271,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,7 +1420,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
@@ -1427,7 +1485,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1543,7 +1601,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B12" t="s">
@@ -1569,7 +1627,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="21"/>
       <c r="B13">
         <v>121212</v>
       </c>

--- a/ExecutionTestData/3/TestData.xlsx
+++ b/ExecutionTestData/3/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newBatchskip-testdata\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Test Data" sheetId="5" r:id="rId3"/>
     <sheet name="DeviceMasterSheet" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="151">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>DBS</t>
+  </si>
+  <si>
+    <t>sakshi.juneja@crestechsoftware.com</t>
+  </si>
+  <si>
+    <t>t68k6kw68ywjv2y9zwfr9r3t</t>
   </si>
   <si>
     <t>S2021219EUID</t>
@@ -452,12 +458,27 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
-    <t>11.0.0</t>
-  </si>
-  <si>
     <t>EndPoint</t>
   </si>
   <si>
+    <t>https://device.pcloudy.com</t>
+  </si>
+  <si>
+    <t>iWEALTH</t>
+  </si>
+  <si>
+    <t>NSTRAX15</t>
+  </si>
+  <si>
+    <t>425455</t>
+  </si>
+  <si>
+    <t>NSTRAX10</t>
+  </si>
+  <si>
+    <t>872465</t>
+  </si>
+  <si>
     <t>Samsung</t>
   </si>
   <si>
@@ -467,22 +488,10 @@
     <t>9.0.0</t>
   </si>
   <si>
-    <t>121212</t>
-  </si>
-  <si>
-    <t>12.0.0</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyS215G_Android_12.0.0_a4b35</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyS21Ultra5G_Android_11.0.0_7ed46</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyS20Ultra_Android_11.0.0_94a4b</t>
-  </si>
-  <si>
-    <t>https://us.pcloudy.com</t>
+    <t>SAMSUNG_GalaxyFold_Android_9.0.0_d69de</t>
+  </si>
+  <si>
+    <t>10.0.0</t>
   </si>
 </sst>
 </file>
@@ -532,7 +541,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -545,8 +554,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -581,6 +602,21 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,39 +675,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -973,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1059,7 +1076,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1086,13 +1103,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
@@ -1109,7 +1126,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1136,13 +1153,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>21</v>
@@ -1156,48 +1173,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="2" max="3" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1207,81 +1216,69 @@
       <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1291,11 +1288,8 @@
       <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1303,23 +1297,15 @@
         <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:D2">
-    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
-      <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:D2">
-    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not working">
-      <formula>LEFT((B2),LEN("Not working"))=("Not working")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1329,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:U3"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,72 +1406,72 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" t="s">
-        <v>51</v>
-      </c>
       <c r="U2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1549,32 +1535,32 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1601,33 +1587,33 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>60</v>
+      <c r="A12" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13">
         <v>121212</v>
       </c>
@@ -1652,32 +1638,32 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1705,327 +1691,327 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/ExecutionTestData/3/TestData.xlsx
+++ b/ExecutionTestData/3/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace5\DBS_Automation\ExecutionTestData\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="152">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -488,10 +488,13 @@
     <t>9.0.0</t>
   </si>
   <si>
-    <t>SAMSUNG_GalaxyFold_Android_9.0.0_d69de</t>
-  </si>
-  <si>
     <t>10.0.0</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS10_Android_12.0.0_d2537</t>
+  </si>
+  <si>
+    <t>12.0.0</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1179,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1195,7 @@
         <v>106</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1200,10 +1203,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/ExecutionTestData/3/TestData.xlsx
+++ b/ExecutionTestData/3/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace5\DBS_Automation\ExecutionTestData\3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -458,6 +458,9 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
+    <t>11.0.0</t>
+  </si>
+  <si>
     <t>EndPoint</t>
   </si>
   <si>
@@ -488,13 +491,10 @@
     <t>9.0.0</t>
   </si>
   <si>
-    <t>10.0.0</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyS10_Android_12.0.0_d2537</t>
-  </si>
-  <si>
-    <t>12.0.0</t>
+    <t>SAMSUNG_GalaxyJ7Pro_Android_8.1.0_42e4e</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1079,7 +1079,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1129,7 +1129,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1179,7 +1179,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,10 +1192,10 @@
         <v>19</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1203,10 +1203,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1225,10 +1225,10 @@
         <v>23</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -1239,10 +1239,10 @@
         <v>24</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -1253,10 +1253,10 @@
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1264,10 +1264,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1275,10 +1275,10 @@
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1300,7 +1300,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">

--- a/ExecutionTestData/3/TestData.xlsx
+++ b/ExecutionTestData/3/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\TestDataNew\ExecutionTestData\3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\final run master testdata\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="159">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -121,12 +121,6 @@
   </si>
   <si>
     <t>DBS</t>
-  </si>
-  <si>
-    <t>sakshi.juneja@crestechsoftware.com</t>
-  </si>
-  <si>
-    <t>t68k6kw68ywjv2y9zwfr9r3t</t>
   </si>
   <si>
     <t>S2021219EUID</t>
@@ -458,27 +452,15 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
+    <t>11.0.0</t>
+  </si>
+  <si>
     <t>EndPoint</t>
   </si>
   <si>
     <t>https://device.pcloudy.com</t>
   </si>
   <si>
-    <t>iWEALTH</t>
-  </si>
-  <si>
-    <t>NSTRAX15</t>
-  </si>
-  <si>
-    <t>425455</t>
-  </si>
-  <si>
-    <t>NSTRAX10</t>
-  </si>
-  <si>
-    <t>872465</t>
-  </si>
-  <si>
     <t>Samsung</t>
   </si>
   <si>
@@ -488,20 +470,59 @@
     <t>9.0.0</t>
   </si>
   <si>
-    <t>SAMSUNG_GalaxyM10_Android_10.0.0_a58e4</t>
+    <t>121212</t>
   </si>
   <si>
     <t>10.0.0</t>
   </si>
   <si>
+    <t>12.0.0</t>
+  </si>
+  <si>
+    <t>ONEPLUS_9_Android_12.0.0_a5ac6</t>
+  </si>
+  <si>
     <t>ONEPLUS_5_Android_9.0.0_d9e3e</t>
+  </si>
+  <si>
+    <t>GOOGLE_Pixel2_Android_11.0.0_c2579</t>
+  </si>
+  <si>
+    <t>ONEPLUS_7_Android_10.0.0_1c4f5</t>
+  </si>
+  <si>
+    <t>GOOGLE_Pixel3_Android_12.0.0_a6091</t>
+  </si>
+  <si>
+    <t>ONEPLUS_8T_Android_11.0.0_f37ff</t>
+  </si>
+  <si>
+    <t>GOOGLE_PixelXL_Android_10.0.0_53dda</t>
+  </si>
+  <si>
+    <t>ONEPLUS_7_Android_9.0.0_f3b35</t>
+  </si>
+  <si>
+    <t>GOOGLE_Pixel6_Android_12.0.0_1c082</t>
+  </si>
+  <si>
+    <t>ONEPLUS_6T_Android_11.0.0_609cf</t>
+  </si>
+  <si>
+    <t>ONEPLUS_OnePlus6_Android_10.0.0_1688c</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyA70_Android_11.0.0_907d0</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyJ4Plus_Android_9.0.0_94cc6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,8 +564,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,12 +587,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -622,7 +648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -672,14 +698,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -988,10 +1019,10 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.140625" style="3" bestFit="1" customWidth="1"/>
@@ -1012,7 +1043,7 @@
     <col min="17" max="16384" width="14.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1023,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1062,7 +1093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1073,7 +1104,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1100,19 +1131,19 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="6" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1123,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1150,13 +1181,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>21</v>
@@ -1170,40 +1201,152 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="8" max="16" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="9" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="N1" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O1" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="S2" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="T2" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="U2" s="25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1213,69 +1356,387 @@
       <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="U5" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="U7" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1285,8 +1746,62 @@
       <c r="C9" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="18">
+        <v>3</v>
+      </c>
+      <c r="E9" s="18">
+        <v>4</v>
+      </c>
+      <c r="F9" s="18">
+        <v>5</v>
+      </c>
+      <c r="G9" s="18">
+        <v>6</v>
+      </c>
+      <c r="H9" s="18">
+        <v>7</v>
+      </c>
+      <c r="I9" s="18">
+        <v>8</v>
+      </c>
+      <c r="J9" s="18">
+        <v>9</v>
+      </c>
+      <c r="K9" s="18">
+        <v>10</v>
+      </c>
+      <c r="L9" s="18">
+        <v>11</v>
+      </c>
+      <c r="M9" s="18">
+        <v>12</v>
+      </c>
+      <c r="N9" s="18">
+        <v>13</v>
+      </c>
+      <c r="O9" s="18">
+        <v>14</v>
+      </c>
+      <c r="P9" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>16</v>
+      </c>
+      <c r="R9" s="18">
+        <v>17</v>
+      </c>
+      <c r="S9" s="18">
+        <v>18</v>
+      </c>
+      <c r="T9" s="18">
+        <v>19</v>
+      </c>
+      <c r="U9" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1294,14 +1809,63 @@
         <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>32</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
@@ -1312,11 +1876,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:X3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1340,7 +1904,7 @@
     <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="B1">
         <v>1</v>
       </c>
@@ -1402,72 +1966,72 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>50</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>51</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>52</v>
       </c>
-      <c r="T2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="20"/>
       <c r="B3">
         <v>121212</v>
@@ -1530,37 +2094,37 @@
         <v>121212</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="75">
+      <c r="A5" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="75">
+      <c r="A6" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="120">
+      <c r="A7" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="8" spans="1:21" ht="60">
+      <c r="A8" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="9" spans="1:21" ht="45">
+      <c r="A9" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="B11">
         <v>1</v>
       </c>
@@ -1583,33 +2147,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
         <v>62</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>67</v>
       </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="21"/>
       <c r="B13">
         <v>121212</v>
@@ -1633,34 +2197,34 @@
         <v>121212</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="A14" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="75">
+      <c r="A15" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="75">
+      <c r="A16" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="120">
+      <c r="A17" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="18" spans="1:1" ht="60">
+      <c r="A18" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="19" spans="1:1" ht="45">
+      <c r="A19" s="9" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1681,334 +2245,334 @@
       <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1">
       <c r="A1" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A2" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A3" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="4" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A4" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="5" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A5" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="6" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A6" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+    <row r="7" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A7" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    <row r="8" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A8" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+    <row r="9" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A9" s="13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+    <row r="10" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A10" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+    <row r="11" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A11" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+    <row r="12" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A12" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+    <row r="13" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A13" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+    <row r="14" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A14" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+    <row r="15" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A15" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+    <row r="16" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A16" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+    <row r="17" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A17" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+    <row r="18" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A18" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+    <row r="19" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A19" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+    <row r="20" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A20" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+    <row r="21" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A21" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+    <row r="22" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A22" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+    <row r="23" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A23" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+    <row r="24" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A24" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+    <row r="25" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+    <row r="26" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A26" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+    <row r="27" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A27" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+    <row r="28" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A28" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+    <row r="29" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A29" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
+    <row r="30" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A30" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+    <row r="31" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A31" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+    <row r="32" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A32" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+    <row r="33" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A33" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+    <row r="34" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A34" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+    <row r="35" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A35" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+    <row r="36" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A36" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A37" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
+    <row r="38" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A38" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
+    <row r="39" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A39" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
+    <row r="40" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A40" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
+    <row r="41" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A41" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
+    <row r="42" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A42" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
+    <row r="43" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A43" s="13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
+    <row r="44" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A44" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
+    <row r="45" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A45" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
+    <row r="46" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A46" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
+    <row r="47" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A47" s="13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
+    <row r="48" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A48" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
+    <row r="49" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A49" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
+    <row r="50" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A50" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="s">
+    <row r="51" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A51" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
+    <row r="52" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A52" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
+    <row r="53" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A53" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
+    <row r="54" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A54" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="s">
+    <row r="55" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A55" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
+    <row r="56" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A56" s="13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
+    <row r="57" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A57" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
+    <row r="58" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A58" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
+    <row r="59" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A59" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="s">
+    <row r="60" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A60" s="13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
+    <row r="61" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A61" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+    <row r="62" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A62" s="13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
+    <row r="63" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A63" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
+    <row r="64" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A64" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
+    <row r="65" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A65" s="13" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
